--- a/PL_blank.xlsx
+++ b/PL_blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exa\Documents\GitHub\pdf-to-excel-Packing-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF8B500-F170-449B-8E13-AC19B441DAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7099DE1-EFEC-43E7-8D03-059FFB3D5C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -106,12 +106,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -144,22 +138,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="23"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="238"/>
     </font>
     <font>
@@ -188,15 +169,27 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -434,19 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -459,6 +439,54 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -478,142 +506,167 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -628,33 +681,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -1000,7 +1044,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1014,357 +1058,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="66"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="66"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="66"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="76"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="76"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="41" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="44"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="46"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="46"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="46"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="46"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="46"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="46"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="46"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="46"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="46"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="48"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="48"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="48"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="49"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="50"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="42"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="34"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="61"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="16"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="66"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="61"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="16"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="66"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="61"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="16"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="66"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="31"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="32">
+      <c r="B41" s="43"/>
+      <c r="C41" s="44">
         <f>SUM(C19:C35)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="15"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="A36:B40"/>
-    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B9:E17"/>
     <mergeCell ref="A5:E6"/>
     <mergeCell ref="A7:E8"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/PL_blank.xlsx
+++ b/PL_blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exa\Documents\GitHub\pdf-to-excel-Packing-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7099DE1-EFEC-43E7-8D03-059FFB3D5C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0292B1E-D412-4409-A225-1BD8C4EF981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Customer Name</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>pcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (according INCOTERMS 2010)</t>
   </si>
   <si>
     <t>Karásek 7, BRNO,  Czech republic
@@ -189,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -458,19 +455,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -506,13 +490,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -521,7 +501,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,37 +595,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,6 +623,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -681,24 +656,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -1044,7 +1028,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1058,371 +1042,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-    </row>
-    <row r="2" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="57"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="76"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="33" t="s">
+      <c r="D18" s="52"/>
+      <c r="E18" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="35"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="37"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="37"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="37"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="37"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="37"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="37"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="37"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="37"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="37"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="37"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="37"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="39"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="40"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="35"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="41"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="34"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
-      <c r="B37" s="66"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="14"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="61"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
-      <c r="B38" s="66"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="14"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="61"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="66"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="61"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="24"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44">
+      <c r="B41" s="38"/>
+      <c r="C41" s="39">
         <f>SUM(C19:C35)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="13"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="13"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="15"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C45:D45"/>
+  <mergeCells count="10">
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="A36:B40"/>
     <mergeCell ref="B9:E17"/>
@@ -1431,6 +1415,8 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/PL_blank.xlsx
+++ b/PL_blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exa\Documents\GitHub\pdf-to-excel-Packing-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0292B1E-D412-4409-A225-1BD8C4EF981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA42614-5AEC-46C6-AB19-63A93C9EF6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,45 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -656,32 +617,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1028,7 +1034,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,131 +1048,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="57"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="68"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="43"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="43"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="43"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -1175,10 +1181,10 @@
       <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="28" t="s">
         <v>5</v>
       </c>
@@ -1303,33 +1309,33 @@
       <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="24"/>
       <c r="D36" s="27"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="61"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="48"/>
       <c r="D37" s="15"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="48"/>
       <c r="D38" s="15"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="61"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="48"/>
       <c r="D39" s="15"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="7"/>
       <c r="D40" s="16"/>
       <c r="E40" s="19"/>
@@ -1374,8 +1380,8 @@
       <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1383,8 +1389,8 @@
       <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1407,16 +1413,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="A36:B40"/>
     <mergeCell ref="B9:E17"/>
     <mergeCell ref="A5:E6"/>
     <mergeCell ref="A7:E8"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -1691,6 +1697,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c026967-0f35-4eb1-b014-2813b5114173">
@@ -1699,15 +1714,6 @@
     <TaxCatchAll xmlns="43dd370b-1578-4a24-9aad-3c4e190aa6a2"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1730,6 +1736,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2842DBE6-4A40-4CFB-B426-08417731025B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5500277-CAD5-4644-8901-F56D57B117D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1738,12 +1752,4 @@
     <ds:schemaRef ds:uri="43dd370b-1578-4a24-9aad-3c4e190aa6a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2842DBE6-4A40-4CFB-B426-08417731025B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PL_blank.xlsx
+++ b/PL_blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exa\Documents\GitHub\pdf-to-excel-Packing-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA42614-5AEC-46C6-AB19-63A93C9EF6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5CB7B7-0A6B-492B-A3F5-32E969A42825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -600,22 +600,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,36 +609,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,6 +633,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -688,6 +668,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1033,8 +1031,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1048,131 +1046,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="43"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="43"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="43"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -1181,10 +1179,10 @@
       <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="28" t="s">
         <v>5</v>
       </c>
@@ -1309,33 +1307,33 @@
       <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="24"/>
       <c r="D36" s="27"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="60"/>
       <c r="D37" s="15"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="60"/>
       <c r="D38" s="15"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="49"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="60"/>
       <c r="D39" s="15"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="7"/>
       <c r="D40" s="16"/>
       <c r="E40" s="19"/>
@@ -1380,8 +1378,8 @@
       <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1389,8 +1387,8 @@
       <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1412,17 +1410,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
+    <mergeCell ref="A36:B40"/>
+    <mergeCell ref="B9:E17"/>
+    <mergeCell ref="A5:E6"/>
+    <mergeCell ref="A7:E8"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A3:E4"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A36:B40"/>
-    <mergeCell ref="B9:E17"/>
-    <mergeCell ref="A5:E6"/>
-    <mergeCell ref="A7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -1697,15 +1693,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c026967-0f35-4eb1-b014-2813b5114173">
@@ -1714,6 +1701,15 @@
     <TaxCatchAll xmlns="43dd370b-1578-4a24-9aad-3c4e190aa6a2"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1736,14 +1732,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2842DBE6-4A40-4CFB-B426-08417731025B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5500277-CAD5-4644-8901-F56D57B117D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1752,4 +1740,12 @@
     <ds:schemaRef ds:uri="43dd370b-1578-4a24-9aad-3c4e190aa6a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2842DBE6-4A40-4CFB-B426-08417731025B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PL_blank.xlsx
+++ b/PL_blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exa\Documents\GitHub\pdf-to-excel-Packing-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5CB7B7-0A6B-492B-A3F5-32E969A42825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC25AA-0755-4174-9359-05C8967411A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,6 +600,84 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -608,84 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1031,8 +1031,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1046,131 +1046,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="43"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="43"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="43"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
@@ -1179,10 +1179,10 @@
       <c r="B18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="28" t="s">
         <v>5</v>
       </c>
@@ -1307,33 +1307,33 @@
       <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="24"/>
       <c r="D36" s="27"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="57"/>
       <c r="D37" s="15"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="57"/>
       <c r="D38" s="15"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="57"/>
       <c r="D39" s="15"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="7"/>
       <c r="D40" s="16"/>
       <c r="E40" s="19"/>
@@ -1378,8 +1378,6 @@
       <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1387,8 +1385,6 @@
       <c r="B46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1411,14 +1407,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A3:E4"/>
     <mergeCell ref="A36:B40"/>
     <mergeCell ref="B9:E17"/>
     <mergeCell ref="A5:E6"/>
     <mergeCell ref="A7:E8"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>

--- a/PL_blank.xlsx
+++ b/PL_blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exa\Documents\GitHub\pdf-to-excel-Packing-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFC25AA-0755-4174-9359-05C8967411A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F15855B-731B-4DF9-83F0-85D29D9DE54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -73,13 +73,10 @@
     <t>pcs</t>
   </si>
   <si>
-    <t>Karásek 7, BRNO,  Czech republic
-Incorporated in the Commercial Register maintained by the Regional Court in Brno, Section C, 
-Insertion 28561 
-IČ: 25504428, VAT No.: CZ25504428</t>
+    <t>Company HEADER</t>
   </si>
   <si>
-    <t>MORAVIA PROPAG s.r.o.</t>
+    <t>Company adress, VAT etc.</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -1056,7 +1053,7 @@
     </row>
     <row r="2" spans="1:5" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -1689,6 +1686,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c026967-0f35-4eb1-b014-2813b5114173">
@@ -1697,15 +1703,6 @@
     <TaxCatchAll xmlns="43dd370b-1578-4a24-9aad-3c4e190aa6a2"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1728,6 +1725,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2842DBE6-4A40-4CFB-B426-08417731025B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5500277-CAD5-4644-8901-F56D57B117D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1736,12 +1741,4 @@
     <ds:schemaRef ds:uri="43dd370b-1578-4a24-9aad-3c4e190aa6a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2842DBE6-4A40-4CFB-B426-08417731025B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>